--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3035080.924146524</v>
+        <v>3131750.9006309</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836237</v>
+        <v>6654055.582836235</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095093</v>
+        <v>806345.88270951</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>390.7529822392023</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -707,22 +709,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>317.3582100207913</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -820,19 +822,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>56.88196987815806</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>37.40475229733291</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +898,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>138.3295234829028</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>311.4936872159398</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1060,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1096,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>58.69923944397664</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,19 +1138,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>287.8888439977533</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>325.0094711757805</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>86.8846229844745</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>43.31785343913981</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>8.612336174460779</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1582,16 +1584,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>113.3951541570392</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1762,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1822,13 +1824,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>31.84589911397047</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>20.22832905621356</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -1904,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174135</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>162.1208794146383</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>74.75769145492406</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2062,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,7 +2137,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>71.03196298775296</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,19 +2289,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>133.6422908616033</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2415,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247734</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>48.96729539614751</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2530,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>132.4218048038476</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2570,7 +2572,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873199</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -2652,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>156.5388143334951</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>37.89796086990482</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -2767,19 +2769,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2889,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -3007,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>43.84727566533324</v>
       </c>
       <c r="W31" t="n">
-        <v>149.4594569020503</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3126,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>107.283753176326</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3247,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>177.520220537916</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3281,10 +3283,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3421,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>214.0667805949541</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3597,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3664,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3673,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>53.4941966122103</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.82340809973003</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3721,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,16 +3793,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9951719589034</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174139</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3834,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>100.2324803596659</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>258.722947215208</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3992,10 +3994,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873206</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.5769297729266</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881762</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4037,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174145</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4071,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851125</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247734</v>
+        <v>18.81721868247774</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734104173</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4153,7 +4155,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983833</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004769</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4192,16 +4194,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>241.7954693814892</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>64.35112928542263</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>936.2491605982757</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C2" t="n">
-        <v>936.2491605982757</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>936.2491605982757</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>936.2491605982757</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>929.3036598490722</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4328,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2102.921886014929</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1750.153230744814</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1750.153230744814</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>1750.153230744814</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,16 +4409,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>508.6979412980804</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>508.6979412980804</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4515,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y4" t="n">
-        <v>690.3464061283202</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2310.5492509541</v>
+        <v>214.5386780278486</v>
       </c>
       <c r="C5" t="n">
-        <v>1941.586734013689</v>
+        <v>214.5386780278486</v>
       </c>
       <c r="D5" t="n">
-        <v>1583.321035406938</v>
+        <v>214.5386780278486</v>
       </c>
       <c r="E5" t="n">
-        <v>1197.532782808694</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>786.5468780190865</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>368.5830699172734</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,10 +4567,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224073</v>
@@ -4592,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X5" t="n">
-        <v>2697.149091018222</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y5" t="n">
-        <v>2697.149091018222</v>
+        <v>601.1385180919704</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4650,13 +4652,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4683,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V7" t="n">
-        <v>571.3497027553424</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>261.1482364572794</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1666.64813361638</v>
+        <v>923.1150787952342</v>
       </c>
       <c r="C8" t="n">
-        <v>1666.64813361638</v>
+        <v>923.1150787952342</v>
       </c>
       <c r="D8" t="n">
-        <v>1666.64813361638</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="E8" t="n">
-        <v>1280.859881018136</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V8" t="n">
-        <v>2443.387305656314</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2443.387305656314</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>2443.387305656314</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y8" t="n">
-        <v>2053.247973680502</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4880,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>640.3667387675712</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>640.3667387675712</v>
       </c>
       <c r="U10" t="n">
-        <v>684.3735766921516</v>
+        <v>640.3667387675712</v>
       </c>
       <c r="V10" t="n">
-        <v>684.3735766921516</v>
+        <v>640.3667387675712</v>
       </c>
       <c r="W10" t="n">
-        <v>684.3735766921516</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="X10" t="n">
-        <v>456.3840257941342</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>350.9495687306105</v>
       </c>
     </row>
     <row r="11">
@@ -5024,7 +5026,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
         <v>850.213983755162</v>
@@ -5039,25 +5041,25 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1803.682313196074</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M11" t="n">
-        <v>2337.214217867999</v>
+        <v>2949.638265046256</v>
       </c>
       <c r="N11" t="n">
-        <v>2979.169639353394</v>
+        <v>3496.417082105038</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232731</v>
+        <v>3999.389552984375</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679677</v>
+        <v>4394.163919341553</v>
       </c>
       <c r="Q11" t="n">
         <v>4653.975400188665</v>
@@ -5094,43 +5096,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
@@ -5139,7 +5141,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5148,22 +5150,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>399.0634049978502</v>
+        <v>508.5026418377232</v>
       </c>
       <c r="C13" t="n">
-        <v>390.3640755286979</v>
+        <v>508.5026418377232</v>
       </c>
       <c r="D13" t="n">
-        <v>390.3640755286979</v>
+        <v>508.5026418377232</v>
       </c>
       <c r="E13" t="n">
-        <v>242.4509819463048</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839441</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839441</v>
@@ -5221,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V13" t="n">
-        <v>909.2731541783409</v>
+        <v>1428.350406746471</v>
       </c>
       <c r="W13" t="n">
-        <v>619.8559841413803</v>
+        <v>1138.93323670951</v>
       </c>
       <c r="X13" t="n">
-        <v>619.8559841413803</v>
+        <v>910.9436858114931</v>
       </c>
       <c r="Y13" t="n">
-        <v>399.0634049978502</v>
+        <v>690.1511066679629</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>818.2062848686767</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L14" t="n">
-        <v>1682.725100522031</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M14" t="n">
-        <v>2216.257005193956</v>
+        <v>1923.729615463053</v>
       </c>
       <c r="N14" t="n">
-        <v>3196.009277420603</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
         <v>189.2383039390118</v>
@@ -5361,7 +5363,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5388,7 +5390,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5397,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>393.5907674431232</v>
+        <v>388.668168728447</v>
       </c>
       <c r="C16" t="n">
-        <v>393.5907674431232</v>
+        <v>388.668168728447</v>
       </c>
       <c r="D16" t="n">
-        <v>243.4741280307875</v>
+        <v>388.668168728447</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839441</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5461,25 +5463,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V16" t="n">
-        <v>1131.790067521631</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W16" t="n">
-        <v>842.3728974846707</v>
+        <v>811.5418683145538</v>
       </c>
       <c r="X16" t="n">
-        <v>614.3833465866534</v>
+        <v>791.1092127022168</v>
       </c>
       <c r="Y16" t="n">
-        <v>393.5907674431232</v>
+        <v>570.3166335586867</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839441</v>
@@ -5519,19 +5521,19 @@
         <v>939.1634975427194</v>
       </c>
       <c r="L17" t="n">
-        <v>1586.925993846823</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M17" t="n">
-        <v>2120.457898518747</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N17" t="n">
-        <v>2667.23671557753</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O17" t="n">
-        <v>3547.201365906984</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4260.55645335393</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q17" t="n">
         <v>4719.034655862918</v>
@@ -5546,19 +5548,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991188</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5595,10 +5597,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>817.4551465905729</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="C19" t="n">
-        <v>653.6966825353827</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="D19" t="n">
-        <v>653.6966825353827</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="E19" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F19" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H19" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839441</v>
@@ -5695,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>999.1036114208126</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X19" t="n">
-        <v>999.1036114208126</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y19" t="n">
-        <v>999.1036114208126</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L20" t="n">
-        <v>1650.184003770974</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M20" t="n">
-        <v>2209.609207880054</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N20" t="n">
-        <v>3189.361480106701</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O20" t="n">
-        <v>3692.333950986038</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P20" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C21" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D21" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F21" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H21" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I21" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>654.7198286198654</v>
+        <v>3473.570861462379</v>
       </c>
       <c r="C22" t="n">
-        <v>654.7198286198654</v>
+        <v>3304.634678534472</v>
       </c>
       <c r="D22" t="n">
-        <v>654.7198286198654</v>
+        <v>3304.634678534472</v>
       </c>
       <c r="E22" t="n">
-        <v>506.8067350374723</v>
+        <v>3156.721584952079</v>
       </c>
       <c r="F22" t="n">
-        <v>506.8067350374723</v>
+        <v>3084.972127388692</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210347</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159223</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.938904607719</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207268</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913133</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833546</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267205</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>4688.221265177248</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>4688.221265177248</v>
       </c>
       <c r="T22" t="n">
-        <v>1674.827124689058</v>
+        <v>4466.454649746774</v>
       </c>
       <c r="U22" t="n">
-        <v>1539.83491169754</v>
+        <v>4466.454649746774</v>
       </c>
       <c r="V22" t="n">
-        <v>1285.150423491653</v>
+        <v>4211.770161540887</v>
       </c>
       <c r="W22" t="n">
-        <v>1285.150423491653</v>
+        <v>3922.352991503926</v>
       </c>
       <c r="X22" t="n">
-        <v>1057.160872593635</v>
+        <v>3694.363440605909</v>
       </c>
       <c r="Y22" t="n">
-        <v>836.3682934501052</v>
+        <v>3473.570861462379</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5968,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>818.2062848686776</v>
+        <v>932.5990189467736</v>
       </c>
       <c r="L23" t="n">
-        <v>1682.725100522032</v>
+        <v>1797.117834600128</v>
       </c>
       <c r="M23" t="n">
-        <v>2216.257005193957</v>
+        <v>2330.649739272053</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420604</v>
+        <v>2877.428556330835</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>2611.451764789528</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L24" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3576.687616095327</v>
+        <v>3795.480907275125</v>
       </c>
       <c r="C25" t="n">
-        <v>3407.751433167421</v>
+        <v>3626.544724347218</v>
       </c>
       <c r="D25" t="n">
-        <v>3407.751433167421</v>
+        <v>3476.428084934882</v>
       </c>
       <c r="E25" t="n">
-        <v>3259.838339585027</v>
+        <v>3328.514991352489</v>
       </c>
       <c r="F25" t="n">
-        <v>3112.948392087117</v>
+        <v>3328.514991352489</v>
       </c>
       <c r="G25" t="n">
-        <v>3112.948392087117</v>
+        <v>3160.812154727208</v>
       </c>
       <c r="H25" t="n">
-        <v>2966.731205304975</v>
+        <v>3014.594967945065</v>
       </c>
       <c r="I25" t="n">
-        <v>2917.269290763412</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="J25" t="n">
-        <v>2962.391923210348</v>
+        <v>2962.391923210347</v>
       </c>
       <c r="K25" t="n">
-        <v>3166.379106159224</v>
+        <v>3166.379106159223</v>
       </c>
       <c r="L25" t="n">
-        <v>3482.93890460772</v>
+        <v>3482.938904607719</v>
       </c>
       <c r="M25" t="n">
-        <v>3827.095950207269</v>
+        <v>3827.095950207268</v>
       </c>
       <c r="N25" t="n">
-        <v>4168.504326913134</v>
+        <v>4168.504326913133</v>
       </c>
       <c r="O25" t="n">
-        <v>4467.833925833547</v>
+        <v>4467.833925833546</v>
       </c>
       <c r="P25" t="n">
-        <v>4700.441426267206</v>
+        <v>4700.441426267205</v>
       </c>
       <c r="Q25" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R25" t="n">
-        <v>4688.221265177249</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S25" t="n">
-        <v>4496.535381004075</v>
+        <v>4586.365838246546</v>
       </c>
       <c r="T25" t="n">
-        <v>4496.535381004075</v>
+        <v>4586.365838246546</v>
       </c>
       <c r="U25" t="n">
-        <v>4496.535381004075</v>
+        <v>4452.606439454781</v>
       </c>
       <c r="V25" t="n">
-        <v>4496.535381004075</v>
+        <v>4197.921951248894</v>
       </c>
       <c r="W25" t="n">
-        <v>4207.118210967114</v>
+        <v>4197.921951248894</v>
       </c>
       <c r="X25" t="n">
-        <v>3979.128660069097</v>
+        <v>4197.921951248894</v>
       </c>
       <c r="Y25" t="n">
-        <v>3758.336080925567</v>
+        <v>3977.129372105364</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6208,16 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6230,19 +6232,19 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1797.117834600128</v>
+        <v>1905.50671493659</v>
       </c>
       <c r="M26" t="n">
-        <v>2330.649739272053</v>
+        <v>2439.038619608515</v>
       </c>
       <c r="N26" t="n">
-        <v>2877.428556330835</v>
+        <v>2985.817436667297</v>
       </c>
       <c r="O26" t="n">
-        <v>3757.39320666029</v>
+        <v>3865.782086996752</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q26" t="n">
         <v>4719.034655862918</v>
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839441</v>
@@ -6336,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3636.751645243102</v>
+        <v>3830.534983916159</v>
       </c>
       <c r="C28" t="n">
-        <v>3478.631630764824</v>
+        <v>3661.598800988252</v>
       </c>
       <c r="D28" t="n">
-        <v>3328.514991352489</v>
+        <v>3623.318032432792</v>
       </c>
       <c r="E28" t="n">
-        <v>3328.514991352489</v>
+        <v>3475.404938850399</v>
       </c>
       <c r="F28" t="n">
         <v>3328.514991352489</v>
@@ -6415,19 +6417,19 @@
         <v>4556.285106989246</v>
       </c>
       <c r="U28" t="n">
-        <v>4267.182240114889</v>
+        <v>4556.285106989246</v>
       </c>
       <c r="V28" t="n">
-        <v>4267.182240114889</v>
+        <v>4301.600618783359</v>
       </c>
       <c r="W28" t="n">
-        <v>4267.182240114889</v>
+        <v>4012.183448746398</v>
       </c>
       <c r="X28" t="n">
-        <v>4039.192689216872</v>
+        <v>4012.183448746398</v>
       </c>
       <c r="Y28" t="n">
-        <v>3818.400110073342</v>
+        <v>4012.183448746398</v>
       </c>
     </row>
     <row r="29">
@@ -6452,13 +6454,13 @@
         <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
@@ -6467,31 +6469,31 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1395.429061104433</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2373.979363934262</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>2920.758180993044</v>
       </c>
       <c r="O29" t="n">
-        <v>3944.053400686433</v>
+        <v>3800.722831322499</v>
       </c>
       <c r="P29" t="n">
-        <v>4338.827767043611</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
         <v>4208.252829604874</v>
@@ -6516,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6561,7 +6563,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6570,7 +6572,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U30" t="n">
         <v>2043.809373447819</v>
@@ -6579,7 +6581,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X30" t="n">
         <v>1346.568408282342</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>506.8067350374723</v>
+        <v>3628.450831365612</v>
       </c>
       <c r="C31" t="n">
-        <v>506.8067350374723</v>
+        <v>3459.514648437705</v>
       </c>
       <c r="D31" t="n">
-        <v>506.8067350374723</v>
+        <v>3309.398009025369</v>
       </c>
       <c r="E31" t="n">
-        <v>506.8067350374723</v>
+        <v>3161.484915442976</v>
       </c>
       <c r="F31" t="n">
-        <v>506.8067350374723</v>
+        <v>3014.594967945065</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>3014.594967945065</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>3014.594967945065</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210347</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159223</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.938904607719</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207268</v>
       </c>
       <c r="N31" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913133</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833546</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267205</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>4586.365838246546</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>4364.599222816072</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.890966501056</v>
+        <v>4364.599222816072</v>
       </c>
       <c r="V31" t="n">
-        <v>1288.206478295169</v>
+        <v>4320.309045376342</v>
       </c>
       <c r="W31" t="n">
-        <v>1137.23732990926</v>
+        <v>4030.891875339381</v>
       </c>
       <c r="X31" t="n">
-        <v>909.2477790112422</v>
+        <v>4030.891875339381</v>
       </c>
       <c r="Y31" t="n">
-        <v>688.4551998677121</v>
+        <v>3810.099296195851</v>
       </c>
     </row>
     <row r="32">
@@ -6701,22 +6703,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1614.698881814245</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2593.249184644074</v>
+        <v>2439.038619608515</v>
       </c>
       <c r="N32" t="n">
-        <v>3573.001456870721</v>
+        <v>2985.817436667297</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3865.782086996752</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q32" t="n">
         <v>4719.034655862918</v>
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839441</v>
@@ -6780,10 +6782,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6810,7 +6812,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6819,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3510.188831349827</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="C34" t="n">
-        <v>3341.25264842192</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D34" t="n">
-        <v>3341.25264842192</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E34" t="n">
-        <v>3193.339554839526</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F34" t="n">
-        <v>3193.339554839526</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G34" t="n">
-        <v>3025.636718214245</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H34" t="n">
-        <v>2917.269290763411</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>4688.221265177248</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>4496.535381004074</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>4274.7687655736</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U34" t="n">
-        <v>3985.665898699243</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V34" t="n">
-        <v>3730.981410493357</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W34" t="n">
-        <v>3730.981410493357</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="X34" t="n">
-        <v>3730.981410493357</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="Y34" t="n">
-        <v>3510.188831349827</v>
+        <v>951.7264155301116</v>
       </c>
     </row>
     <row r="35">
@@ -6929,34 +6931,34 @@
         <v>435.1415336001589</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>785.6651881176194</v>
+        <v>654.3809594856828</v>
       </c>
       <c r="L35" t="n">
-        <v>1650.184003770974</v>
+        <v>1518.899775139038</v>
       </c>
       <c r="M35" t="n">
-        <v>2528.189928969822</v>
+        <v>2497.450077968866</v>
       </c>
       <c r="N35" t="n">
-        <v>3507.942201196468</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O35" t="n">
-        <v>4010.914672075805</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P35" t="n">
-        <v>4405.689038432984</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6990,64 +6992,64 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7056,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>560.2704579839216</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>560.2704579839216</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
         <v>95.56103444839442</v>
@@ -7117,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T37" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U37" t="n">
-        <v>1475.554715057174</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V37" t="n">
-        <v>1475.554715057174</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W37" t="n">
-        <v>1186.137545020213</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X37" t="n">
-        <v>958.1479941221958</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y37" t="n">
-        <v>741.9189228141613</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7172,19 +7174,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M38" t="n">
-        <v>2274.668463554307</v>
+        <v>2215.249704195856</v>
       </c>
       <c r="N38" t="n">
-        <v>3254.420735780954</v>
+        <v>3195.001976422503</v>
       </c>
       <c r="O38" t="n">
         <v>3757.393206660291</v>
@@ -7199,25 +7201,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C39" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D39" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F39" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H39" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K39" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L39" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M39" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>877.1197344942216</v>
+        <v>710.6604776707951</v>
       </c>
       <c r="C40" t="n">
-        <v>708.1835515663147</v>
+        <v>541.7242947428882</v>
       </c>
       <c r="D40" t="n">
-        <v>558.0669121539789</v>
+        <v>541.7242947428882</v>
       </c>
       <c r="E40" t="n">
-        <v>410.1538185715858</v>
+        <v>393.8112011604951</v>
       </c>
       <c r="F40" t="n">
-        <v>263.2638710736754</v>
+        <v>246.9212536625847</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>246.9212536625847</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7333,7 +7335,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7345,37 +7347,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R40" t="n">
-        <v>1870.663255902956</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S40" t="n">
-        <v>1870.663255902956</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T40" t="n">
-        <v>1648.896640472482</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="U40" t="n">
-        <v>1359.793773598126</v>
+        <v>1475.554715057173</v>
       </c>
       <c r="V40" t="n">
-        <v>1105.109285392239</v>
+        <v>1220.870226851286</v>
       </c>
       <c r="W40" t="n">
-        <v>1105.109285392239</v>
+        <v>931.4530568143252</v>
       </c>
       <c r="X40" t="n">
-        <v>877.1197344942216</v>
+        <v>931.4530568143252</v>
       </c>
       <c r="Y40" t="n">
-        <v>877.1197344942216</v>
+        <v>710.6604776707951</v>
       </c>
     </row>
     <row r="41">
@@ -7391,7 +7393,7 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
         <v>1261.199888544769</v>
@@ -7403,28 +7405,28 @@
         <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839444</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074199</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>939.1634975427194</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L41" t="n">
-        <v>1803.682313196074</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M41" t="n">
-        <v>2337.214217867999</v>
+        <v>2368.748013620956</v>
       </c>
       <c r="N41" t="n">
-        <v>3254.420735780955</v>
+        <v>3348.500285847603</v>
       </c>
       <c r="O41" t="n">
-        <v>3757.393206660292</v>
+        <v>4075.97392775006</v>
       </c>
       <c r="P41" t="n">
         <v>4470.748294107238</v>
@@ -7439,13 +7441,13 @@
         <v>4667.761053946817</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
         <v>3524.421286991189</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>3154.542034367489</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>2980.089005086362</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>2831.154595425111</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>2671.917140419655</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>2525.38258244654</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>2389.019482279158</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>2298.517587917025</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839444</v>
+        <v>2279.510296318563</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>2373.187565809182</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>2611.451764789529</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>2978.149925102194</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.47698845434</v>
+        <v>3425.42625032451</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>3898.949293878964</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>4309.910573297019</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>4620.410164773122</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>4777.907369012237</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>4648.469482505717</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313403</v>
+        <v>4455.826482183572</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>4227.758635317988</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216076</v>
+        <v>3992.606527086245</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487874</v>
+        <v>3738.369170358043</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>3530.517670152511</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>3322.757371387557</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>737.3554149786656</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="C43" t="n">
-        <v>636.1104853224374</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="D43" t="n">
-        <v>485.9938459101016</v>
+        <v>411.1769646560686</v>
       </c>
       <c r="E43" t="n">
-        <v>485.9938459101016</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="F43" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="G43" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839444</v>
@@ -7570,7 +7572,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7582,37 +7584,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T43" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U43" t="n">
-        <v>1475.554715057174</v>
+        <v>1191.724198940191</v>
       </c>
       <c r="V43" t="n">
-        <v>1475.554715057174</v>
+        <v>1191.724198940191</v>
       </c>
       <c r="W43" t="n">
-        <v>1186.137545020213</v>
+        <v>1191.724198940191</v>
       </c>
       <c r="X43" t="n">
-        <v>958.1479941221958</v>
+        <v>963.7346480421742</v>
       </c>
       <c r="Y43" t="n">
-        <v>737.3554149786656</v>
+        <v>742.942068898644</v>
       </c>
     </row>
     <row r="44">
@@ -7625,49 +7627,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551636</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001594</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839444</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074199</v>
+        <v>284.4401654074184</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972664</v>
+        <v>939.1634975427157</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196068</v>
       </c>
       <c r="M44" t="n">
-        <v>2373.979363934263</v>
+        <v>2337.214217867989</v>
       </c>
       <c r="N44" t="n">
-        <v>2920.758180993046</v>
+        <v>2883.993034926768</v>
       </c>
       <c r="O44" t="n">
-        <v>3800.7228313225</v>
+        <v>3482.142110232738</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679679</v>
+        <v>4195.497197679681</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188668</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419722</v>
@@ -7679,13 +7681,13 @@
         <v>4461.783306331039</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
         <v>3150.95552873011</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3154.54203436749</v>
+        <v>970.5927724973202</v>
       </c>
       <c r="C45" t="n">
-        <v>2980.089005086363</v>
+        <v>796.1397432161932</v>
       </c>
       <c r="D45" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549419</v>
       </c>
       <c r="E45" t="n">
-        <v>2671.917140419656</v>
+        <v>487.9678785494864</v>
       </c>
       <c r="F45" t="n">
-        <v>2525.382582446541</v>
+        <v>341.4333205763713</v>
       </c>
       <c r="G45" t="n">
-        <v>2389.019482279159</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H45" t="n">
-        <v>2298.517587917026</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
-        <v>2279.510296318564</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J45" t="n">
-        <v>2373.187565809181</v>
+        <v>189.2383039390109</v>
       </c>
       <c r="K45" t="n">
-        <v>2611.451764789529</v>
+        <v>427.5025029193566</v>
       </c>
       <c r="L45" t="n">
-        <v>2978.149925102194</v>
+        <v>794.2006632320199</v>
       </c>
       <c r="M45" t="n">
-        <v>3425.42625032451</v>
+        <v>1241.476988454333</v>
       </c>
       <c r="N45" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008786</v>
       </c>
       <c r="O45" t="n">
-        <v>4309.910573297019</v>
+        <v>2125.961311426838</v>
       </c>
       <c r="P45" t="n">
-        <v>4620.410164773122</v>
+        <v>2436.460902902939</v>
       </c>
       <c r="Q45" t="n">
-        <v>4778.051722419722</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R45" t="n">
-        <v>4777.907369012238</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>4648.469482505718</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>4455.826482183573</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U45" t="n">
-        <v>4227.758635317989</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
-        <v>3992.606527086246</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>3738.369170358044</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X45" t="n">
-        <v>3530.517670152512</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>3322.757371387558</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>951.7264155301116</v>
+        <v>951.7264155301119</v>
       </c>
       <c r="C46" t="n">
-        <v>951.7264155301116</v>
+        <v>951.7264155301119</v>
       </c>
       <c r="D46" t="n">
-        <v>801.6097761177758</v>
+        <v>801.6097761177762</v>
       </c>
       <c r="E46" t="n">
-        <v>653.6966825353827</v>
+        <v>653.696682535383</v>
       </c>
       <c r="F46" t="n">
-        <v>506.8067350374723</v>
+        <v>506.8067350374727</v>
       </c>
       <c r="G46" t="n">
-        <v>339.1038984121913</v>
+        <v>339.1038984121916</v>
       </c>
       <c r="H46" t="n">
-        <v>192.8867116300491</v>
+        <v>192.8867116300493</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839444</v>
       </c>
       <c r="J46" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953295</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442049</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482926999</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892248</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598111</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518524</v>
       </c>
       <c r="P46" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952182</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104696</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862224</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862224</v>
       </c>
       <c r="T46" t="n">
-        <v>1453.060509258584</v>
+        <v>1644.74639343175</v>
       </c>
       <c r="U46" t="n">
-        <v>1453.060509258584</v>
+        <v>1644.74639343175</v>
       </c>
       <c r="V46" t="n">
-        <v>1198.376021052697</v>
+        <v>1644.74639343175</v>
       </c>
       <c r="W46" t="n">
-        <v>1198.376021052697</v>
+        <v>1400.508545571659</v>
       </c>
       <c r="X46" t="n">
-        <v>1198.376021052697</v>
+        <v>1172.518994673642</v>
       </c>
       <c r="Y46" t="n">
-        <v>1133.374880360351</v>
+        <v>951.7264155301119</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,10 +8066,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8298,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8307,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8544,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8696,19 +8698,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>96.13798426930634</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>11.64153443578746</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8927,22 +8929,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>201.9664098701115</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>411.0304280899003</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9167,22 +9169,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>198.7154374299943</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>258.6211785616921</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9398,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>26.15484791631889</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>64.28566532692423</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9419,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9638,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>201.9664098701124</v>
+        <v>317.5146261106135</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9647,13 +9649,13 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9878,7 +9880,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>241.9338129178253</v>
+        <v>351.4175304294027</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9890,10 +9892,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10115,25 +10117,25 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>329.4296048068261</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>133.253057640026</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,25 +10351,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>226.7688596193103</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>426.998343622191</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>36.48628322062262</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>347.9535560878011</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,22 +10822,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>260.9678829613757</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>60.01894884692092</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11063,19 +11065,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>374.1693948021959</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>226.7688596193134</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11297,22 +11299,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>361.2819237492099</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>96.13798426932897</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>158.6344849241671</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,16 +23472,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>138.7424891667888</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>220.2917442098575</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>205.4813263328236</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>5.125941683989566</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>71.67627119164511</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>74.38908503517828</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,19 +24177,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>152.5695473440096</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>47.38512501369058</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,16 +24420,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>153.7900334017652</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>10.70800676513275</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>110.7175121483075</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24655,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24895,13 +24897,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>208.2903676584948</v>
       </c>
       <c r="W31" t="n">
-        <v>137.0635414345407</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,25 +25077,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>37.47126173799475</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>109.002777798675</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>4.51787275714068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25552,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>91.26081830211049</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.108744570317299</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>67.01434073896189</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>27.48889099040485</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26071,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,16 +26082,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>44.72752895510177</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>154.2335240666721</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>735573.9104639816</v>
+        <v>735573.9104639819</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>697885.5043846412</v>
+      </c>
+      <c r="C2" t="n">
+        <v>697885.5043846411</v>
+      </c>
+      <c r="D2" t="n">
         <v>697885.5043846413</v>
       </c>
-      <c r="C2" t="n">
-        <v>697885.504384641</v>
-      </c>
-      <c r="D2" t="n">
-        <v>697885.5043846408</v>
-      </c>
       <c r="E2" t="n">
+        <v>675039.0377078715</v>
+      </c>
+      <c r="F2" t="n">
+        <v>675039.0377078713</v>
+      </c>
+      <c r="G2" t="n">
+        <v>675039.0377078713</v>
+      </c>
+      <c r="H2" t="n">
+        <v>675039.0377078718</v>
+      </c>
+      <c r="I2" t="n">
         <v>675039.0377078714</v>
-      </c>
-      <c r="F2" t="n">
-        <v>675039.0377078715</v>
-      </c>
-      <c r="G2" t="n">
-        <v>675039.0377078714</v>
-      </c>
-      <c r="H2" t="n">
-        <v>675039.0377078715</v>
-      </c>
-      <c r="I2" t="n">
-        <v>675039.0377078715</v>
       </c>
       <c r="J2" t="n">
         <v>675039.0377078716</v>
       </c>
       <c r="K2" t="n">
-        <v>675039.0377078713</v>
+        <v>675039.0377078715</v>
       </c>
       <c r="L2" t="n">
-        <v>675039.0377078716</v>
+        <v>675039.0377078712</v>
       </c>
       <c r="M2" t="n">
         <v>675039.0377078714</v>
       </c>
       <c r="N2" t="n">
+        <v>675039.0377078713</v>
+      </c>
+      <c r="O2" t="n">
         <v>675039.0377078715</v>
       </c>
-      <c r="O2" t="n">
-        <v>675039.0377078718</v>
-      </c>
       <c r="P2" t="n">
-        <v>675039.0377078714</v>
+        <v>675039.0377078716</v>
       </c>
     </row>
     <row r="3">
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-1.057353638655816e-09</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26420,46 @@
         <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="F4" t="n">
+        <v>21619.60799709188</v>
+      </c>
+      <c r="G4" t="n">
+        <v>21619.60799709184</v>
+      </c>
+      <c r="H4" t="n">
         <v>21619.60799709186</v>
-      </c>
-      <c r="F4" t="n">
-        <v>21619.60799709186</v>
-      </c>
-      <c r="G4" t="n">
-        <v>21619.60799709187</v>
-      </c>
-      <c r="H4" t="n">
-        <v>21619.60799709187</v>
       </c>
       <c r="I4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="J4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="K4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="L4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="M4" t="n">
+        <v>21619.60799709188</v>
+      </c>
+      <c r="N4" t="n">
+        <v>21619.60799709189</v>
+      </c>
+      <c r="O4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="N4" t="n">
-        <v>21619.60799709188</v>
-      </c>
-      <c r="O4" t="n">
-        <v>21619.60799709189</v>
-      </c>
       <c r="P4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709213</v>
       </c>
     </row>
     <row r="5">
@@ -26473,28 +26475,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371364</v>
@@ -26503,13 +26505,13 @@
         <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="O5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="O5" t="n">
-        <v>96383.51825371367</v>
-      </c>
       <c r="P5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371358</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-167148.0492857423</v>
+        <v>-167148.0492857424</v>
       </c>
       <c r="C6" t="n">
-        <v>422819.8299288017</v>
+        <v>422819.8299288019</v>
       </c>
       <c r="D6" t="n">
-        <v>422819.8299288016</v>
+        <v>422819.8299288022</v>
       </c>
       <c r="E6" t="n">
-        <v>-170341.5025363407</v>
+        <v>-170341.5025363406</v>
       </c>
       <c r="F6" t="n">
+        <v>557035.9114570658</v>
+      </c>
+      <c r="G6" t="n">
+        <v>557035.9114570658</v>
+      </c>
+      <c r="H6" t="n">
+        <v>557035.9114570663</v>
+      </c>
+      <c r="I6" t="n">
+        <v>557035.911457066</v>
+      </c>
+      <c r="J6" t="n">
+        <v>380612.6922644732</v>
+      </c>
+      <c r="K6" t="n">
         <v>557035.9114570661</v>
       </c>
-      <c r="G6" t="n">
-        <v>557035.911457066</v>
-      </c>
-      <c r="H6" t="n">
-        <v>557035.9114570661</v>
-      </c>
-      <c r="I6" t="n">
-        <v>557035.9114570661</v>
-      </c>
-      <c r="J6" t="n">
-        <v>380612.6922644733</v>
-      </c>
-      <c r="K6" t="n">
-        <v>557035.9114570658</v>
-      </c>
       <c r="L6" t="n">
-        <v>557035.9114570662</v>
+        <v>557035.9114570657</v>
       </c>
       <c r="M6" t="n">
         <v>427393.5966181211</v>
       </c>
       <c r="N6" t="n">
+        <v>557035.911457066</v>
+      </c>
+      <c r="O6" t="n">
         <v>557035.9114570661</v>
       </c>
-      <c r="O6" t="n">
-        <v>557035.9114570662</v>
-      </c>
       <c r="P6" t="n">
-        <v>557035.911457066</v>
+        <v>557035.9114570685</v>
       </c>
     </row>
   </sheetData>
@@ -26777,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593294</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-3.32298925283572e-12</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503743</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503743</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>23.03118778159273</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>10.39404844934359</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27540,19 +27542,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27585,7 +27587,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27597,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>229.6410284584329</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>181.1799010547619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>243.600846589359</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>12.42908554841733</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27664,25 +27666,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27816,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,13 +27833,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>96.92615468724711</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>167.0104159450605</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,19 +27858,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>66.79419762292969</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>81.86657456593093</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28059,25 +28061,25 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>125.2609159655444</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>242.9640208028379</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28624,7 +28626,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-5.30488756371126e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -30520,7 +30522,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -32081,13 +32083,13 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
         <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
         <v>557.708647897025</v>
@@ -32312,7 +32314,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32786,7 +32788,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -33044,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33500,7 +33502,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33743,7 +33745,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837925</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026454</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.38101186168158</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284465</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974793</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953974</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003788</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623166</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574964</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990094993</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.151212309903</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746389</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781671</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563558</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806911</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451113</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345264</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502557</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798522</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752225</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026429</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353142</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138776</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233451</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.64781668379</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970228</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002909</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987628</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905535</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238299</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.44815837589846</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462209</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.96517109943053</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311872</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451741995</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297385</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702015</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098808</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316421</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883103</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.768002308599</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880216</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895874</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071218</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553022</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112262</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.107191150878029</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,10 +34786,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -35018,7 +35020,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35027,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35249,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,7 +35266,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35407,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
         <v>661.3366991265652</v>
@@ -35416,19 +35418,19 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>648.4398196822178</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>262.4358392395069</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35647,22 +35649,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>539.157696425512</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>963.3322635028118</v>
       </c>
       <c r="O14" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
         <v>250.7943048037195</v>
@@ -35729,13 +35731,13 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M15" t="n">
         <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
         <v>415.1124034525806</v>
@@ -35887,22 +35889,22 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>654.3055518223265</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>766.6741794499112</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
         <v>59.61319854222478</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597718</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -36118,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>565.0759637465457</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>616.5875007398357</v>
       </c>
       <c r="O20" t="n">
         <v>508.0530008882191</v>
@@ -36139,7 +36141,7 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36358,7 +36360,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>539.1576964255129</v>
+        <v>654.705912666014</v>
       </c>
       <c r="L23" t="n">
         <v>873.2513289427826</v>
@@ -36367,13 +36369,13 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037195</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597718</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36598,7 +36600,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>697.5239273101574</v>
+        <v>807.0076448217349</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
@@ -36610,10 +36612,10 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36692,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36835,25 +36837,25 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>785.0197191991583</v>
       </c>
       <c r="M29" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>384.0473624437454</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37069,25 +37071,25 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>682.3589740116424</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>965.9194594524178</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
         <v>59.61319854222478</v>
@@ -37148,7 +37150,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>373.6775697760231</v>
       </c>
       <c r="L35" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>886.8746719180278</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,7 +37393,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004592</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>799.8889987916025</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>568.0719497351399</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37713,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N41" t="n">
-        <v>926.4712302151074</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>734.8218605075324</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597877</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37950,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687111</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.336699126563</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427798</v>
       </c>
       <c r="M44" t="n">
-        <v>900.2030395794367</v>
+        <v>538.9211158302237</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129083</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>604.1909851575452</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908519</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636223</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152061</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597622</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609552</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340034</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013268</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004567</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525784</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859607</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127412</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306568</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443187</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170197</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934826</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675389</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226387</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451095</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.394238537893</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3131750.9006309</v>
+        <v>3126029.288663013</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836235</v>
+        <v>6654055.582836239</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.88270951</v>
+        <v>806345.8827095092</v>
       </c>
     </row>
     <row r="9">
@@ -661,22 +661,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>162.8990990825394</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>317.3582100207913</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>56.88196987815806</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,16 +901,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>138.3295234829028</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>141.0458982607228</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>58.69923944397664</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,16 +1135,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>287.8888439977533</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>203.5933316365572</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586891</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>86.8846229844745</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>114.4746605491556</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>113.3951541570392</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>63.13625055643888</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>20.22832905621356</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>410.921725653453</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174135</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>74.75769145492406</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>71.03196298775296</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>181.1375494785995</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>114.4746605491556</v>
       </c>
       <c r="U25" t="n">
-        <v>132.4218048038476</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2572,7 +2572,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873199</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>37.89796086990482</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>52.74455946606857</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -2733,7 +2733,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3006,16 +3006,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>43.84727566533324</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3192,13 +3192,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -3207,7 +3207,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>50.18870648718789</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>177.520220537916</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>74.75769145492404</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>201.360032484281</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,13 +3556,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470136</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>53.4941966122103</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>84.69473660442847</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3802,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174139</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3903,16 +3903,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>258.722947215208</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3994,10 +3994,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.5769297729266</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881762</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851125</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734104173</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983833</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004769</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>84.69473660442847</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>241.7954693814892</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.553390680693</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>764.6872557005402</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>378.8990031022959</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>371.9535023530925</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4360,22 +4360,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2102.921886014929</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>1750.153230744814</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X2" t="n">
-        <v>1750.153230744814</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y2" t="n">
-        <v>1750.153230744814</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,22 +4409,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>184.027325963587</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>184.027325963587</v>
       </c>
       <c r="D4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245969</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W4" t="n">
-        <v>456.3840257941342</v>
+        <v>184.027325963587</v>
       </c>
       <c r="X4" t="n">
-        <v>456.3840257941342</v>
+        <v>184.027325963587</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>184.027325963587</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>214.5386780278486</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="C5" t="n">
-        <v>214.5386780278486</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="D5" t="n">
-        <v>214.5386780278486</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2499.649797244955</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2281.015130217018</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2281.015130217018</v>
       </c>
       <c r="V5" t="n">
-        <v>1717.512263598976</v>
+        <v>1949.952242873447</v>
       </c>
       <c r="W5" t="n">
-        <v>1364.743608328862</v>
+        <v>1597.183587603333</v>
       </c>
       <c r="X5" t="n">
-        <v>991.2778500677821</v>
+        <v>1223.717829342253</v>
       </c>
       <c r="Y5" t="n">
-        <v>601.1385180919704</v>
+        <v>1223.717829342253</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4649,13 +4649,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>261.1482364572794</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>923.1150787952342</v>
+        <v>1341.294330781294</v>
       </c>
       <c r="C8" t="n">
-        <v>923.1150787952342</v>
+        <v>972.331813840882</v>
       </c>
       <c r="D8" t="n">
-        <v>632.3182666762915</v>
+        <v>614.0661152341315</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="F8" t="n">
         <v>221.3323618866839</v>
@@ -4801,16 +4801,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4819,7 +4819,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.546461473041</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2491.499261082307</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859356</v>
+        <v>2491.499261082307</v>
       </c>
       <c r="X8" t="n">
-        <v>1309.714918859356</v>
+        <v>2118.033502821227</v>
       </c>
       <c r="Y8" t="n">
-        <v>1309.714918859356</v>
+        <v>1727.894170845415</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
@@ -4898,7 +4898,7 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>350.9495687306105</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>350.9495687306105</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
         <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>640.3667387675712</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>640.3667387675712</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U10" t="n">
-        <v>640.3667387675712</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V10" t="n">
-        <v>640.3667387675712</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W10" t="n">
-        <v>350.9495687306105</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="X10" t="n">
-        <v>350.9495687306105</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Y10" t="n">
-        <v>350.9495687306105</v>
+        <v>728.1289842064347</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
@@ -5026,7 +5026,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
         <v>850.213983755162</v>
@@ -5041,28 +5041,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1971.087962216427</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2949.638265046256</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>3496.417082105038</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O11" t="n">
-        <v>3999.389552984375</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4394.163919341553</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R11" t="n">
         <v>4778.05172241972</v>
@@ -5096,43 +5096,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
@@ -5141,7 +5141,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5150,22 +5150,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>508.5026418377232</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="C13" t="n">
-        <v>508.5026418377232</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="D13" t="n">
-        <v>508.5026418377232</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="E13" t="n">
-        <v>360.5895482553301</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="F13" t="n">
-        <v>360.5895482553301</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="G13" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H13" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839441</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U13" t="n">
-        <v>1542.890966501056</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V13" t="n">
-        <v>1428.350406746471</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W13" t="n">
-        <v>1138.93323670951</v>
+        <v>841.6225995718539</v>
       </c>
       <c r="X13" t="n">
-        <v>910.9436858114931</v>
+        <v>613.6330486738366</v>
       </c>
       <c r="Y13" t="n">
-        <v>690.1511066679629</v>
+        <v>392.8404695303064</v>
       </c>
     </row>
     <row r="14">
@@ -5257,67 +5257,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1390.197710791128</v>
+        <v>1586.925993846823</v>
       </c>
       <c r="M14" t="n">
-        <v>1923.729615463053</v>
+        <v>2120.457898518747</v>
       </c>
       <c r="N14" t="n">
-        <v>2877.428556330836</v>
+        <v>2667.23671557753</v>
       </c>
       <c r="O14" t="n">
-        <v>3757.393206660291</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5333,43 +5333,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O15" t="n">
         <v>2125.96131142685</v>
@@ -5378,7 +5378,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5387,16 +5387,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X15" t="n">
         <v>1346.568408282342</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>388.668168728447</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="C16" t="n">
-        <v>388.668168728447</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="D16" t="n">
-        <v>388.668168728447</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="E16" t="n">
-        <v>388.668168728447</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F16" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5463,25 +5463,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1866.513008862232</v>
+        <v>1802.739018401182</v>
       </c>
       <c r="T16" t="n">
-        <v>1644.746393431758</v>
+        <v>1802.739018401182</v>
       </c>
       <c r="U16" t="n">
-        <v>1355.643526557401</v>
+        <v>1513.636151526826</v>
       </c>
       <c r="V16" t="n">
-        <v>1100.959038351514</v>
+        <v>1258.951663320939</v>
       </c>
       <c r="W16" t="n">
-        <v>811.5418683145538</v>
+        <v>969.5344932839785</v>
       </c>
       <c r="X16" t="n">
-        <v>791.1092127022168</v>
+        <v>741.5449423859611</v>
       </c>
       <c r="Y16" t="n">
-        <v>570.3166335586867</v>
+        <v>520.752363242431</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5515,28 +5515,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2337.214217867999</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>3316.966490094645</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R17" t="n">
         <v>4778.05172241972</v>
@@ -5554,7 +5554,7 @@
         <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
         <v>3150.955528730109</v>
@@ -5597,10 +5597,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C19" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D19" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E19" t="n">
         <v>95.56103444839441</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.0738540998329</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5734,19 +5734,19 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839441</v>
@@ -5755,25 +5755,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1390.197710791128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2368.748013620957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>2979.169639353394</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
         <v>4778.05172241972</v>
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D21" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F21" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839441</v>
@@ -5834,7 +5834,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L21" t="n">
         <v>794.2006632320243</v>
@@ -5864,7 +5864,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3473.570861462379</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C22" t="n">
-        <v>3304.634678534472</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D22" t="n">
-        <v>3304.634678534472</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E22" t="n">
-        <v>3156.721584952079</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F22" t="n">
-        <v>3084.972127388692</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G22" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>4688.221265177248</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>4688.221265177248</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>4466.454649746774</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>4466.454649746774</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>4211.770161540887</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>3922.352991503926</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>3694.363440605909</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>3473.570861462379</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>932.5990189467736</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1797.117834600128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2330.649739272053</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>2877.428556330835</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3795.480907275125</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C25" t="n">
-        <v>3626.544724347218</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D25" t="n">
-        <v>3476.428084934882</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E25" t="n">
-        <v>3328.514991352489</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F25" t="n">
-        <v>3328.514991352489</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G25" t="n">
-        <v>3160.812154727208</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>4778.05172241972</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>4586.365838246546</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>4586.365838246546</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U25" t="n">
-        <v>4452.606439454781</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>4197.921951248894</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>4197.921951248894</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>4197.921951248894</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>3977.129372105364</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
         <v>451.8458144277729</v>
@@ -6232,46 +6232,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1905.50671493659</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M26" t="n">
-        <v>2439.038619608515</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N26" t="n">
-        <v>2985.817436667297</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O26" t="n">
-        <v>3865.782086996752</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P26" t="n">
-        <v>4260.55645335393</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3830.534983916159</v>
+        <v>781.811212990069</v>
       </c>
       <c r="C28" t="n">
-        <v>3661.598800988252</v>
+        <v>612.8750300621621</v>
       </c>
       <c r="D28" t="n">
-        <v>3623.318032432792</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="E28" t="n">
-        <v>3475.404938850399</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="F28" t="n">
-        <v>3328.514991352489</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G28" t="n">
-        <v>3160.812154727208</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H28" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>4556.285106989246</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U28" t="n">
-        <v>4556.285106989246</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V28" t="n">
-        <v>4301.600618783359</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W28" t="n">
-        <v>4012.183448746398</v>
+        <v>1412.241807861856</v>
       </c>
       <c r="X28" t="n">
-        <v>4012.183448746398</v>
+        <v>1184.252256963839</v>
       </c>
       <c r="Y28" t="n">
-        <v>4012.183448746398</v>
+        <v>963.4596778203087</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
         <v>1646.988141143014</v>
@@ -6451,64 +6451,64 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>416.1091927888621</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L29" t="n">
-        <v>1395.429061104433</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M29" t="n">
-        <v>2373.979363934262</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N29" t="n">
-        <v>2920.758180993044</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O29" t="n">
-        <v>3800.722831322499</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
         <v>427.502502919359</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6563,7 +6563,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6572,7 +6572,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
         <v>2043.809373447819</v>
@@ -6581,7 +6581,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
         <v>1346.568408282342</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3628.450831365612</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>3459.514648437705</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>3309.398009025369</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>3161.484915442976</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>4778.05172241972</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>4586.365838246546</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>4364.599222816072</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>4364.599222816072</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V31" t="n">
-        <v>4320.309045376342</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W31" t="n">
-        <v>4030.891875339381</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X31" t="n">
-        <v>4030.891875339381</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y31" t="n">
-        <v>3810.099296195851</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="32">
@@ -6691,7 +6691,7 @@
         <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6700,28 +6700,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2439.038619608515</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>2985.817436667297</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>3865.782086996752</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P32" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R32" t="n">
         <v>4778.05172241972</v>
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839441</v>
@@ -6782,7 +6782,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
         <v>794.2006632320243</v>
@@ -6797,16 +6797,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>951.7264155301116</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="C34" t="n">
-        <v>951.7264155301116</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D34" t="n">
-        <v>801.6097761177758</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E34" t="n">
-        <v>653.6966825353827</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F34" t="n">
-        <v>506.8067350374723</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G34" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H34" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839441</v>
@@ -6888,22 +6888,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1385.724257814702</v>
+        <v>1402.364846140213</v>
       </c>
       <c r="V34" t="n">
-        <v>1131.039769608815</v>
+        <v>1147.680357934326</v>
       </c>
       <c r="W34" t="n">
-        <v>951.7264155301116</v>
+        <v>858.2631878973651</v>
       </c>
       <c r="X34" t="n">
-        <v>951.7264155301116</v>
+        <v>630.2736369993478</v>
       </c>
       <c r="Y34" t="n">
-        <v>951.7264155301116</v>
+        <v>409.4810578558177</v>
       </c>
     </row>
     <row r="35">
@@ -6916,19 +6916,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6940,43 +6940,43 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>654.3809594856828</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L35" t="n">
-        <v>1518.899775139038</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M35" t="n">
-        <v>2497.450077968866</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N35" t="n">
-        <v>3044.228895027648</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O35" t="n">
-        <v>3547.201365906985</v>
+        <v>3763.957685256236</v>
       </c>
       <c r="P35" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -7019,10 +7019,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839442</v>
+        <v>578.4172407837245</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H37" t="n">
         <v>95.56103444839442</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U37" t="n">
-        <v>1163.957642384228</v>
+        <v>1752.949493898359</v>
       </c>
       <c r="V37" t="n">
-        <v>909.2731541783409</v>
+        <v>1498.265005692472</v>
       </c>
       <c r="W37" t="n">
-        <v>619.8559841413803</v>
+        <v>1208.847835655512</v>
       </c>
       <c r="X37" t="n">
-        <v>391.866433243363</v>
+        <v>980.8582847574944</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.0738540998329</v>
+        <v>760.0657056139643</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7174,28 +7174,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>785.6651881176192</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2215.249704195856</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>3195.001976422503</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>3757.393206660291</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7210,16 +7210,16 @@
         <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>710.6604776707951</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>541.7242947428882</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>541.7242947428882</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>393.8112011604951</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>246.9212536625847</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>246.9212536625847</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7335,7 +7335,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7347,37 +7347,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.657581931529</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T40" t="n">
-        <v>1764.657581931529</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U40" t="n">
-        <v>1475.554715057173</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>1220.870226851286</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>931.4530568143252</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>931.4530568143252</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>710.6604776707951</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7396,58 +7396,58 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089258</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>939.1634975427193</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1390.197710791128</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M41" t="n">
-        <v>2368.748013620956</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N41" t="n">
-        <v>3348.500285847603</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.97392775006</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107238</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.03465586292</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
         <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
         <v>3524.421286991189</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C42" t="n">
-        <v>2980.089005086362</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D42" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E42" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F42" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G42" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H42" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I42" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>2373.187565809182</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K42" t="n">
-        <v>2611.451764789529</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L42" t="n">
-        <v>2978.149925102194</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
-        <v>3425.42625032451</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>4309.910573297019</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>4620.410164773122</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
-        <v>4778.051722419722</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S42" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T42" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>561.2936040684043</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>561.2936040684043</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>411.1769646560686</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>263.2638710736755</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>263.2638710736755</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7584,37 +7584,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689057</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T43" t="n">
-        <v>1453.060509258583</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U43" t="n">
-        <v>1191.724198940191</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V43" t="n">
-        <v>1191.724198940191</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.724198940191</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X43" t="n">
-        <v>963.7346480421742</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.942068898644</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551636</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001594</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074184</v>
+        <v>416.1091927888612</v>
       </c>
       <c r="K44" t="n">
-        <v>939.1634975427157</v>
+        <v>1070.832524924161</v>
       </c>
       <c r="L44" t="n">
-        <v>1803.682313196068</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M44" t="n">
-        <v>2337.214217867989</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N44" t="n">
-        <v>2883.993034926768</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232738</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679681</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188668</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7703,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973202</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161932</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549419</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494864</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763713</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390109</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193566</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320199</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454333</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008786</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426838</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902939</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7757,22 +7757,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>951.7264155301119</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C46" t="n">
-        <v>951.7264155301119</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D46" t="n">
-        <v>801.6097761177762</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E46" t="n">
-        <v>653.696682535383</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F46" t="n">
-        <v>506.8067350374727</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G46" t="n">
-        <v>339.1038984121916</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>192.8867116300493</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
-        <v>140.6836668953295</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442049</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482926999</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892248</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598111</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.125669518524</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
-        <v>1878.733169952182</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104696</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862224</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1866.513008862224</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T46" t="n">
-        <v>1644.74639343175</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U46" t="n">
-        <v>1644.74639343175</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V46" t="n">
-        <v>1644.74639343175</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W46" t="n">
-        <v>1400.508545571659</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X46" t="n">
-        <v>1172.518994673642</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y46" t="n">
-        <v>951.7264155301119</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,13 +8069,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8297,10 +8297,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8546,10 +8546,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8701,19 +8701,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>11.64153443578746</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>29.61882225792044</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>411.0304280899003</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -8947,7 +8947,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>258.6211785616921</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9403,28 +9403,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>64.28566532692423</v>
+        <v>189.7998007892635</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>317.5146261106135</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,16 +9652,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>351.4175304294027</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9892,7 +9892,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -10111,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>329.4296048068261</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>426.998343622191</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10588,28 +10588,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>36.48628322062262</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>37.1365111780442</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10825,28 +10825,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>60.01894884692092</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>29.61882225792094</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>226.7688596193134</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>132.9990175570114</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>96.13798426932897</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23424,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>51.55114770987262</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>138.7424891667888</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>126.632774775003</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>205.4813263328236</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>71.67627119164511</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>74.38908503517828</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="U25" t="n">
-        <v>153.7900334017652</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>110.7175121483075</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>92.67648855686268</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24858,7 +24858,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>208.2903676584948</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,22 +25128,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>236.023131718425</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>109.002777798675</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>84.85180572133191</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>91.26081830211049</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>27.48889099040485</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,19 +26073,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.769025331442</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>44.72752895510177</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>735573.9104639817</v>
+        <v>735573.9104639816</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>735573.9104639819</v>
+        <v>735573.9104639816</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846412</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.504384641</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846413</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
-        <v>675039.0377078715</v>
+        <v>675039.0377078714</v>
       </c>
       <c r="F2" t="n">
         <v>675039.0377078713</v>
       </c>
       <c r="G2" t="n">
+        <v>675039.0377078718</v>
+      </c>
+      <c r="H2" t="n">
         <v>675039.0377078713</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>675039.0377078715</v>
+      </c>
+      <c r="J2" t="n">
+        <v>675039.0377078719</v>
+      </c>
+      <c r="K2" t="n">
+        <v>675039.0377078716</v>
+      </c>
+      <c r="L2" t="n">
+        <v>675039.0377078715</v>
+      </c>
+      <c r="M2" t="n">
+        <v>675039.0377078716</v>
+      </c>
+      <c r="N2" t="n">
+        <v>675039.0377078719</v>
+      </c>
+      <c r="O2" t="n">
         <v>675039.0377078718</v>
       </c>
-      <c r="I2" t="n">
-        <v>675039.0377078714</v>
-      </c>
-      <c r="J2" t="n">
-        <v>675039.0377078716</v>
-      </c>
-      <c r="K2" t="n">
-        <v>675039.0377078715</v>
-      </c>
-      <c r="L2" t="n">
-        <v>675039.0377078712</v>
-      </c>
-      <c r="M2" t="n">
-        <v>675039.0377078714</v>
-      </c>
-      <c r="N2" t="n">
-        <v>675039.0377078713</v>
-      </c>
-      <c r="O2" t="n">
-        <v>675039.0377078715</v>
-      </c>
       <c r="P2" t="n">
-        <v>675039.0377078716</v>
+        <v>675039.037707872</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934065</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.057353638655816e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26420,7 +26420,7 @@
         <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
@@ -26429,37 +26429,37 @@
         <v>21619.60799709187</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709184</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="H4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="I4" t="n">
         <v>21619.60799709186</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="L4" t="n">
         <v>21619.60799709186</v>
       </c>
-      <c r="K4" t="n">
-        <v>21619.60799709186</v>
-      </c>
-      <c r="L4" t="n">
-        <v>21619.60799709187</v>
-      </c>
       <c r="M4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709182</v>
       </c>
       <c r="N4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709182</v>
       </c>
       <c r="O4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709213</v>
+        <v>21619.60799709186</v>
       </c>
     </row>
     <row r="5">
@@ -26475,13 +26475,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371364</v>
@@ -26493,10 +26493,10 @@
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371364</v>
@@ -26505,13 +26505,13 @@
         <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371358</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-167148.0492857424</v>
+        <v>-167148.0492857429</v>
       </c>
       <c r="C6" t="n">
-        <v>422819.8299288019</v>
+        <v>422819.8299288017</v>
       </c>
       <c r="D6" t="n">
-        <v>422819.8299288022</v>
+        <v>422819.8299288017</v>
       </c>
       <c r="E6" t="n">
-        <v>-170341.5025363406</v>
+        <v>-171013.4574385985</v>
       </c>
       <c r="F6" t="n">
-        <v>557035.9114570658</v>
+        <v>556363.956554808</v>
       </c>
       <c r="G6" t="n">
-        <v>557035.9114570658</v>
+        <v>556363.9565548084</v>
       </c>
       <c r="H6" t="n">
-        <v>557035.9114570663</v>
+        <v>556363.956554808</v>
       </c>
       <c r="I6" t="n">
-        <v>557035.911457066</v>
+        <v>556363.9565548082</v>
       </c>
       <c r="J6" t="n">
-        <v>380612.6922644732</v>
+        <v>379940.7373622154</v>
       </c>
       <c r="K6" t="n">
-        <v>557035.9114570661</v>
+        <v>556363.9565548083</v>
       </c>
       <c r="L6" t="n">
-        <v>557035.9114570657</v>
+        <v>556363.9565548082</v>
       </c>
       <c r="M6" t="n">
-        <v>427393.5966181211</v>
+        <v>426721.6417158635</v>
       </c>
       <c r="N6" t="n">
-        <v>557035.911457066</v>
+        <v>556363.9565548085</v>
       </c>
       <c r="O6" t="n">
-        <v>557035.9114570661</v>
+        <v>556363.9565548084</v>
       </c>
       <c r="P6" t="n">
-        <v>557035.9114570685</v>
+        <v>556363.9565548087</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593294</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-3.32298925283572e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503743</v>
+        <v>520.2256578503742</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503743</v>
+        <v>520.2256578503742</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>250.8850709382556</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>10.39404844934359</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>19.83197231642205</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27596,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>229.6410284584329</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27621,16 +27621,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>243.600846589359</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>33.36981454824871</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>167.0104159450605</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27855,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>66.79419762292969</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>124.1589268335777</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060684</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>125.2609159655444</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28626,7 +28626,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-5.30488756371126e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-12</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30282,7 +30282,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>-1.069224708771799e-12</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30522,7 +30522,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31518,46 +31518,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32083,7 +32083,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
         <v>593.9283018233475</v>
@@ -32314,7 +32314,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32554,7 +32554,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -32788,10 +32788,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -33265,7 +33265,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33502,7 +33502,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33739,13 +33739,13 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837925</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026454</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.38101186168158</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.8670377284465</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974793</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953974</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003788</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623166</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574964</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990094993</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.151212309903</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746389</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781671</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563558</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806911</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451113</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345264</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502557</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798522</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752225</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026429</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353142</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138776</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233451</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.64781668379</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970228</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002909</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987628</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905535</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238299</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.44815837589846</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462209</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.96517109943053</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311872</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451741995</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297385</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702015</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098808</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316421</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883103</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.768002308599</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880216</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895874</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.3612387071218</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553022</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112262</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.107191150878029</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
         <v>873.2513289427826</v>
@@ -35421,19 +35421,19 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>262.4358392395069</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>485.2089366502526</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>963.3322635028118</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
         <v>888.8531821509645</v>
@@ -35667,7 +35667,7 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222478</v>
@@ -35731,7 +35731,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
         <v>451.7942679013292</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>766.6741794499112</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597718</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>616.5875007398357</v>
+        <v>742.101636202175</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>654.705912666014</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
@@ -36372,16 +36372,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597718</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36600,7 +36600,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>807.0076448217349</v>
+        <v>485.2089366502535</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
@@ -36612,7 +36612,7 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636242</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>323.7860185257249</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>785.0197191991583</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
@@ -36849,7 +36849,7 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636242</v>
@@ -36913,7 +36913,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>965.9194594524178</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37308,28 +37308,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>373.6775697760231</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>435.8984973974161</v>
       </c>
       <c r="Q35" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,13 +37387,13 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004592</v>
@@ -37545,28 +37545,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>568.0719497351399</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>89.23202080014572</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M41" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>734.8218605075324</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597877</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687111</v>
+        <v>323.786018525724</v>
       </c>
       <c r="K44" t="n">
-        <v>661.336699126563</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427798</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302237</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129083</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>604.1909851575452</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908519</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636223</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152061</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597622</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609552</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340034</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013268</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004567</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525784</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859607</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127412</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306568</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443187</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.757372170197</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934826</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675389</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226387</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451095</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.394238537893</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3126029.288663013</v>
+        <v>3129434.779787463</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836239</v>
+        <v>6654055.582836241</v>
       </c>
     </row>
     <row r="8">
@@ -673,7 +673,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>162.8990990825394</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>149.1149290617441</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -822,16 +822,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>128.7835007017903</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>141.0458982607228</v>
+        <v>61.18453164039729</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>60.46179076613092</v>
       </c>
       <c r="V8" t="n">
-        <v>203.5933316365572</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586891</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>208.2793294336578</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>114.4746605491556</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>39.62223420023862</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1666,13 +1666,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>63.13625055643888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>141.1561157580011</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.921725653453</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>181.1375494785995</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>215.3425589322509</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>114.4746605491556</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>206.2850895321558</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>52.74455946606857</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2809,7 +2809,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>74.75769145492404</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>67.41386939711251</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>74.75769145492406</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>50.18870648718789</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U37" t="n">
-        <v>201.360032484281</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3562,7 +3562,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.752258470136</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>84.69473660442847</v>
+        <v>7.601081015447828</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>67.41386939711251</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>84.69473660442847</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1491.915471247702</v>
+        <v>1341.294330781294</v>
       </c>
       <c r="C2" t="n">
-        <v>1122.952954307291</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="D2" t="n">
-        <v>764.6872557005402</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E2" t="n">
-        <v>378.8990031022959</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F2" t="n">
-        <v>371.9535023530925</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2491.499261082307</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2491.499261082307</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2491.499261082307</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2491.499261082307</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>2491.499261082307</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.654643287636</v>
+        <v>2118.033502821228</v>
       </c>
       <c r="Y2" t="n">
-        <v>1878.515311311824</v>
+        <v>1727.894170845416</v>
       </c>
     </row>
     <row r="3">
@@ -4421,10 +4421,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184.027325963587</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C4" t="n">
-        <v>184.027325963587</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>184.027325963587</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="X4" t="n">
-        <v>184.027325963587</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="Y4" t="n">
-        <v>184.027325963587</v>
+        <v>667.8624625746712</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>837.1179892781315</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="C5" t="n">
-        <v>837.1179892781315</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2499.649797244955</v>
+        <v>2635.3465338057</v>
       </c>
       <c r="T5" t="n">
-        <v>2281.015130217018</v>
+        <v>2416.711866777763</v>
       </c>
       <c r="U5" t="n">
-        <v>2281.015130217018</v>
+        <v>2416.711866777763</v>
       </c>
       <c r="V5" t="n">
-        <v>1949.952242873447</v>
+        <v>2416.711866777763</v>
       </c>
       <c r="W5" t="n">
-        <v>1597.183587603333</v>
+        <v>2063.943211507648</v>
       </c>
       <c r="X5" t="n">
-        <v>1223.717829342253</v>
+        <v>1690.477453246569</v>
       </c>
       <c r="Y5" t="n">
-        <v>1223.717829342253</v>
+        <v>1300.338121270757</v>
       </c>
     </row>
     <row r="6">
@@ -4637,16 +4637,16 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
         <v>266.2060027641987</v>
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1341.294330781294</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C8" t="n">
-        <v>972.331813840882</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D8" t="n">
-        <v>614.0661152341315</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>228.2778626358873</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4819,37 +4819,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="V8" t="n">
-        <v>2491.499261082307</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="W8" t="n">
-        <v>2491.499261082307</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X8" t="n">
-        <v>2118.033502821227</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y8" t="n">
-        <v>1727.894170845415</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
@@ -4901,7 +4901,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036447</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064347</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064347</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064347</v>
+        <v>517.7458231623355</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
@@ -5026,10 +5026,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5041,28 +5041,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R11" t="n">
         <v>4778.05172241972</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>211.1920047000667</v>
+        <v>803.8133219477185</v>
       </c>
       <c r="C13" t="n">
-        <v>211.1920047000667</v>
+        <v>803.8133219477185</v>
       </c>
       <c r="D13" t="n">
-        <v>211.1920047000667</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="E13" t="n">
-        <v>211.1920047000667</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F13" t="n">
-        <v>211.1920047000667</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839441</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1674.827124689058</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1385.724257814702</v>
+        <v>1502.868507712936</v>
       </c>
       <c r="V13" t="n">
-        <v>1131.039769608815</v>
+        <v>1502.868507712936</v>
       </c>
       <c r="W13" t="n">
-        <v>841.6225995718539</v>
+        <v>1213.451337675976</v>
       </c>
       <c r="X13" t="n">
-        <v>613.6330486738366</v>
+        <v>985.4617867779582</v>
       </c>
       <c r="Y13" t="n">
-        <v>392.8404695303064</v>
+        <v>985.4617867779582</v>
       </c>
     </row>
     <row r="14">
@@ -5284,22 +5284,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1586.925993846823</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M14" t="n">
-        <v>2120.457898518747</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N14" t="n">
-        <v>2667.23671557753</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O14" t="n">
-        <v>3547.201365906984</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R14" t="n">
         <v>4778.05172241972</v>
@@ -5314,7 +5314,7 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
         <v>3524.421286991189</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>339.1038984121913</v>
+        <v>582.3166934139181</v>
       </c>
       <c r="C16" t="n">
-        <v>339.1038984121913</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="D16" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E16" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F16" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H16" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839441</v>
@@ -5463,25 +5463,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1802.739018401182</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T16" t="n">
-        <v>1802.739018401182</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U16" t="n">
-        <v>1513.636151526826</v>
+        <v>1502.164458322666</v>
       </c>
       <c r="V16" t="n">
-        <v>1258.951663320939</v>
+        <v>1502.164458322666</v>
       </c>
       <c r="W16" t="n">
-        <v>969.5344932839785</v>
+        <v>1212.747288285705</v>
       </c>
       <c r="X16" t="n">
-        <v>741.5449423859611</v>
+        <v>984.7577373876879</v>
       </c>
       <c r="Y16" t="n">
-        <v>520.752363242431</v>
+        <v>763.9651582441578</v>
       </c>
     </row>
     <row r="17">
@@ -5506,10 +5506,10 @@
         <v>850.2139837551615</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839441</v>
@@ -5521,13 +5521,13 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O17" t="n">
         <v>3482.142110232731</v>
@@ -5600,7 +5600,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5700,10 +5700,10 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
         <v>1270.093287563029</v>
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5737,13 +5737,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5752,28 +5752,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420603</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
         <v>4778.05172241972</v>
@@ -5788,16 +5788,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5834,10 +5834,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839441</v>
+        <v>578.4172407837245</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839441</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839441</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839441</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839441</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839441</v>
@@ -5943,19 +5943,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.093287563029</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>980.8582847574944</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>760.0657056139643</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5974,13 +5974,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -6001,7 +6001,7 @@
         <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O23" t="n">
         <v>3482.142110232731</v>
@@ -6025,16 +6025,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6071,10 +6071,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839441</v>
@@ -6177,22 +6177,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>955.5888650790198</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>727.5993141810025</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>506.8067350374723</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
         <v>451.8458144277729</v>
@@ -6232,46 +6232,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1586.925993846824</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M26" t="n">
-        <v>2120.457898518748</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N26" t="n">
-        <v>2667.236715577531</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O26" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P26" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>781.811212990069</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C28" t="n">
-        <v>612.8750300621621</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D28" t="n">
-        <v>462.7583906498263</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E28" t="n">
-        <v>462.7583906498263</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6411,25 +6411,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T28" t="n">
-        <v>1956.343466104704</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U28" t="n">
-        <v>1956.343466104704</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>1701.658977898817</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>1412.241807861856</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>1184.252256963839</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>963.4596778203087</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6445,37 +6445,37 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>416.1091927888621</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>1070.832524924162</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1521.86673817257</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M29" t="n">
-        <v>2055.398642844495</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N29" t="n">
-        <v>2602.177459903277</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O29" t="n">
         <v>3482.142110232732</v>
@@ -6518,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K30" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839442</v>
+        <v>500.2948715744233</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>331.3586886465164</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>331.3586886465164</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>331.3586886465164</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>331.3586886465164</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>163.6558520212353</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839442</v>
@@ -6651,22 +6651,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258584</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384228</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="V31" t="n">
-        <v>909.2731541783409</v>
+        <v>1420.142636483171</v>
       </c>
       <c r="W31" t="n">
-        <v>619.8559841413803</v>
+        <v>1130.72546644621</v>
       </c>
       <c r="X31" t="n">
-        <v>391.866433243363</v>
+        <v>902.7359155481931</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.0738540998329</v>
+        <v>681.943336404663</v>
       </c>
     </row>
     <row r="32">
@@ -6679,22 +6679,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839441</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839441</v>
@@ -6785,7 +6785,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6797,16 +6797,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C34" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D34" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E34" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F34" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
         <v>95.56103444839441</v>
@@ -6891,19 +6891,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1402.364846140213</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V34" t="n">
-        <v>1147.680357934326</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W34" t="n">
-        <v>858.2631878973651</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X34" t="n">
-        <v>630.2736369993478</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y34" t="n">
-        <v>409.4810578558177</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
@@ -6922,46 +6922,46 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1803.682313196074</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M35" t="n">
-        <v>2337.214217867999</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N35" t="n">
-        <v>2883.993034926781</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O35" t="n">
-        <v>3763.957685256236</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
         <v>4667.761053946815</v>
@@ -6973,16 +6973,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7049,7 +7049,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>578.4172407837245</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C37" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D37" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E37" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F37" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G37" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7122,25 +7122,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>1956.343466104704</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U37" t="n">
-        <v>1752.949493898359</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.265005692472</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W37" t="n">
-        <v>1208.847835655512</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X37" t="n">
-        <v>980.8582847574944</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>760.0657056139643</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
@@ -7189,13 +7189,13 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>3517.878731871643</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4231.233819318589</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4689.712021827577</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7210,16 +7210,16 @@
         <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G40" t="n">
         <v>95.56103444839442</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1780.96276986786</v>
+        <v>1948.66560649314</v>
       </c>
       <c r="T40" t="n">
-        <v>1559.196154437386</v>
+        <v>1726.898991062666</v>
       </c>
       <c r="U40" t="n">
-        <v>1270.093287563029</v>
+        <v>1437.79612418831</v>
       </c>
       <c r="V40" t="n">
-        <v>1015.408799357142</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W40" t="n">
-        <v>725.9916293201816</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X40" t="n">
-        <v>498.0020784221642</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y40" t="n">
-        <v>277.2094992786341</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="41">
@@ -7402,10 +7402,10 @@
         <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
@@ -7417,13 +7417,13 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
         <v>3482.142110232732</v>
@@ -7438,10 +7438,10 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
         <v>4208.252829604874</v>
@@ -7466,34 +7466,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
         <v>794.2006632320242</v>
@@ -7508,22 +7508,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.56103444839442</v>
+        <v>500.2948715744233</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839442</v>
+        <v>331.3586886465164</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839442</v>
+        <v>331.3586886465164</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839442</v>
+        <v>331.3586886465164</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839442</v>
+        <v>331.3586886465164</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>163.6558520212353</v>
       </c>
       <c r="H43" t="n">
         <v>95.56103444839442</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T43" t="n">
-        <v>1559.196154437386</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U43" t="n">
-        <v>1270.093287563029</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="V43" t="n">
-        <v>1015.408799357142</v>
+        <v>1420.142636483171</v>
       </c>
       <c r="W43" t="n">
-        <v>725.9916293201816</v>
+        <v>1130.72546644621</v>
       </c>
       <c r="X43" t="n">
-        <v>498.0020784221642</v>
+        <v>902.7359155481931</v>
       </c>
       <c r="Y43" t="n">
-        <v>277.2094992786341</v>
+        <v>681.943336404663</v>
       </c>
     </row>
     <row r="44">
@@ -7627,52 +7627,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>416.1091927888612</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1070.832524924161</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L44" t="n">
-        <v>1521.86673817257</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M44" t="n">
-        <v>2055.398642844494</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N44" t="n">
-        <v>2602.177459903276</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232731</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679677</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
         <v>4667.761053946815</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D45" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F45" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7760,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7833,25 +7833,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T46" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U46" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V46" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W46" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X46" t="n">
-        <v>498.0020784221642</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y46" t="n">
-        <v>277.2094992786341</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
   </sheetData>
@@ -8069,13 +8069,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142008</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400246</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>29.61882225792044</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476829</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>189.7998007892635</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9649,10 +9649,10 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476829</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9880,7 +9880,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>29.61882225792135</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>132.9990175570123</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,10 +10600,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>37.1365111780442</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>29.61882225792094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11065,16 +11065,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>344.7025836476838</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>132.9990175570114</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>161.8544041422902</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>51.55114770987262</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>246.5896040053743</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>126.632774775003</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>145.0557224476118</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24183,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>105.0742887270134</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>10.3670964567863</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,16 +24417,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>105.0742887270136</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>80.23790880443519</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>92.67648855686268</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24651,13 +24651,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>77.34114551720828</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24891,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270132</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>236.023131718425</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25362,13 +25362,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U37" t="n">
-        <v>84.85180572133191</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>105.0742887270134</v>
+        <v>182.1679443159941</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>77.34114551720828</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>105.0742887270134</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="E2" t="n">
         <v>675039.0377078714</v>
       </c>
       <c r="F2" t="n">
-        <v>675039.0377078713</v>
+        <v>675039.0377078715</v>
       </c>
       <c r="G2" t="n">
-        <v>675039.0377078718</v>
+        <v>675039.0377078714</v>
       </c>
       <c r="H2" t="n">
-        <v>675039.0377078713</v>
+        <v>675039.0377078715</v>
       </c>
       <c r="I2" t="n">
         <v>675039.0377078715</v>
       </c>
       <c r="J2" t="n">
-        <v>675039.0377078719</v>
+        <v>675039.0377078715</v>
       </c>
       <c r="K2" t="n">
         <v>675039.0377078716</v>
       </c>
       <c r="L2" t="n">
-        <v>675039.0377078715</v>
+        <v>675039.0377078714</v>
       </c>
       <c r="M2" t="n">
         <v>675039.0377078716</v>
       </c>
       <c r="N2" t="n">
+        <v>675039.0377078718</v>
+      </c>
+      <c r="O2" t="n">
         <v>675039.0377078719</v>
       </c>
-      <c r="O2" t="n">
-        <v>675039.0377078718</v>
-      </c>
       <c r="P2" t="n">
-        <v>675039.037707872</v>
+        <v>675039.0377078716</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934065</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26426,22 +26426,22 @@
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="G4" t="n">
         <v>21619.60799709186</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="I4" t="n">
         <v>21619.60799709186</v>
       </c>
       <c r="J4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="K4" t="n">
         <v>21619.60799709187</v>
@@ -26450,16 +26450,16 @@
         <v>21619.60799709186</v>
       </c>
       <c r="M4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="N4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="O4" t="n">
         <v>21619.60799709182</v>
       </c>
-      <c r="N4" t="n">
-        <v>21619.60799709182</v>
-      </c>
-      <c r="O4" t="n">
-        <v>21619.60799709187</v>
-      </c>
       <c r="P4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709188</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371364</v>
@@ -26493,7 +26493,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
@@ -26502,7 +26502,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
         <v>96383.51825371366</v>
@@ -26511,7 +26511,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-167148.0492857429</v>
+        <v>-167148.0492857424</v>
       </c>
       <c r="C6" t="n">
-        <v>422819.8299288017</v>
+        <v>422819.8299288019</v>
       </c>
       <c r="D6" t="n">
-        <v>422819.8299288017</v>
+        <v>422819.829928802</v>
       </c>
       <c r="E6" t="n">
-        <v>-171013.4574385985</v>
+        <v>-170408.6980265665</v>
       </c>
       <c r="F6" t="n">
-        <v>556363.956554808</v>
+        <v>556968.7159668403</v>
       </c>
       <c r="G6" t="n">
-        <v>556363.9565548084</v>
+        <v>556968.7159668402</v>
       </c>
       <c r="H6" t="n">
-        <v>556363.956554808</v>
+        <v>556968.7159668403</v>
       </c>
       <c r="I6" t="n">
-        <v>556363.9565548082</v>
+        <v>556968.7159668403</v>
       </c>
       <c r="J6" t="n">
-        <v>379940.7373622154</v>
+        <v>380545.4967742473</v>
       </c>
       <c r="K6" t="n">
-        <v>556363.9565548083</v>
+        <v>556968.7159668404</v>
       </c>
       <c r="L6" t="n">
-        <v>556363.9565548082</v>
+        <v>556968.7159668402</v>
       </c>
       <c r="M6" t="n">
-        <v>426721.6417158635</v>
+        <v>427326.4011278957</v>
       </c>
       <c r="N6" t="n">
-        <v>556363.9565548085</v>
+        <v>556968.7159668405</v>
       </c>
       <c r="O6" t="n">
-        <v>556363.9565548084</v>
+        <v>556968.7159668406</v>
       </c>
       <c r="P6" t="n">
-        <v>556363.9565548087</v>
+        <v>556968.7159668404</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503742</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503742</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>250.8850709382556</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>25.30078374722746</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27542,16 +27542,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>19.83197231642205</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,10 +27596,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>226.8591419211456</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>33.36981454824871</v>
+        <v>113.2311811685742</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,13 +27909,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>190.7623767421584</v>
       </c>
       <c r="V8" t="n">
-        <v>124.1589268335777</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060684</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>78.24366890293325</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30282,7 +30282,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>-1.069224708771799e-12</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-7.244796634730057e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31518,46 +31518,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31852,7 +31852,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
         <v>557.708647897025</v>
@@ -32320,7 +32320,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
         <v>593.9283018233475</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32554,7 +32554,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32791,7 +32791,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -33028,7 +33028,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33265,7 +33265,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33508,7 +33508,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837925</v>
@@ -33739,7 +33739,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181306</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
         <v>297.223041434342</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.389756104752</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282437</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35500,7 +35500,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
         <v>415.1124034525806</v>
@@ -35652,7 +35652,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>485.2089366502526</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
@@ -35661,7 +35661,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908545</v>
@@ -35670,7 +35670,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35889,7 +35889,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
@@ -35898,7 +35898,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>852.755584535902</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
@@ -35968,7 +35968,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M18" t="n">
         <v>451.7942679013292</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>742.101636202175</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36369,10 +36369,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>897.0044190605943</v>
       </c>
       <c r="O23" t="n">
-        <v>852.755584535902</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
@@ -36439,7 +36439,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36600,7 +36600,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>485.2089366502535</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
@@ -36609,7 +36609,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
@@ -36618,7 +36618,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>323.7860185257249</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
@@ -36846,7 +36846,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
@@ -36913,7 +36913,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -37156,7 +37156,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004592</v>
@@ -37305,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
@@ -37320,10 +37320,10 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>435.8984973974161</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
         <v>463.1092954636242</v>
@@ -37387,7 +37387,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
@@ -37566,7 +37566,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>89.23202080014572</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
@@ -37794,7 +37794,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>323.786018525724</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
@@ -38031,7 +38031,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>669.9074050305093</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>
@@ -38040,7 +38040,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
